--- a/36269_中嶋智也_個人作成用/game/data/switch_table_editor.xlsx
+++ b/36269_中嶋智也_個人作成用/game/data/switch_table_editor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\game\36269_中嶋智也_個人作成用\36269_中嶋智也_個人作成用\36269_中嶋智也_個人作成用\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBB3630-8FC1-4C86-9E57-A2C03EEF1BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20242D3-5F8F-4936-9977-1282C1CAF1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11295" xr2:uid="{E51956B8-6144-441D-8B5C-017EE799F78E}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{E51956B8-6144-441D-8B5C-017EE799F78E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -571,13 +571,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706A296D-7A17-4940-9161-64F1A68216A7}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="3" width="9" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
@@ -601,9 +604,21 @@
         <v>900</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4400</v>
+      </c>
+      <c r="C3" s="1">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>